--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/51/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/51/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.6461646164616461</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1367.367367367367</v>
+        <v>756.7056705670567</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04094094094094095</v>
+        <v>0.09451945194519452</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1421421421421421</v>
+        <v>0.346034603460346</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273.273273273273</v>
+        <v>644.7844784478448</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839.8398398398399</v>
+        <v>767.9567956795679</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>933.933933933934</v>
+        <v>122.5904590459046</v>
       </c>
     </row>
   </sheetData>
